--- a/monografia v3/resultados.xlsx
+++ b/monografia v3/resultados.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,426 +465,393 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>1145</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>1081</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3">
-        <f>B2/(B2+E2)</f>
-        <v>0.5</v>
+        <f t="shared" ref="F2:F11" si="0">B2/(B2+E2)</f>
+        <v>0.96869712351945858</v>
       </c>
       <c r="G2" s="3">
-        <f>C2/(C2+D2)</f>
-        <v>0.5</v>
+        <f t="shared" ref="G2:G11" si="1">C2/(C2+D2)</f>
+        <v>0.91532599491955968</v>
       </c>
       <c r="H2" s="3">
-        <f>(B2+C2)/(B2+C2+D2+E2)</f>
-        <v>0.5</v>
+        <f t="shared" ref="H2:H11" si="2">(B2+C2)/(B2+C2+D2+E2)</f>
+        <v>0.94202285230639016</v>
       </c>
       <c r="I2" s="3">
-        <f>(D2+E2)/A16</f>
-        <v>7.776049766718507E-4</v>
+        <f>(D2+E2)/A15</f>
+        <v>5.3265940902021774E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>1145</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>1081</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3">
-        <f>B3/(B3+E3)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.96869712351945858</v>
       </c>
       <c r="G3" s="3">
-        <f>C3/(C3+D3)</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.91532599491955968</v>
       </c>
       <c r="H3" s="3">
-        <f>(B3+C3)/(B3+C3+D3+E3)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.94202285230639016</v>
       </c>
       <c r="I3" s="3">
-        <f>(D3+E3)/A16</f>
-        <v>7.776049766718507E-4</v>
+        <f>(D3+E3)/A15</f>
+        <v>5.3265940902021774E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>1145</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>1082</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3">
-        <f>B4/(B4+E4)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.96869712351945858</v>
       </c>
       <c r="G4" s="3">
-        <f>C4/(C4+D4)</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.91617273497036411</v>
       </c>
       <c r="H4" s="3">
-        <f>(B4+C4)/(B4+C4+D4+E4)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.94244604316546765</v>
       </c>
       <c r="I4" s="3">
-        <f>(D4+E4)/A16</f>
-        <v>7.776049766718507E-4</v>
+        <f>(D4+E4)/A15</f>
+        <v>5.2877138413685847E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>1145</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>1083</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3">
-        <f>B5/(B5+E5)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.96869712351945858</v>
       </c>
       <c r="G5" s="3">
-        <f>C5/(C5+D5)</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.91701947502116854</v>
       </c>
       <c r="H5" s="3">
-        <f>(B5+C5)/(B5+C5+D5+E5)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.94286923402454503</v>
       </c>
       <c r="I5" s="3">
-        <f>(D5+E5)/A16</f>
-        <v>7.776049766718507E-4</v>
+        <f>(D5+E5)/A15</f>
+        <v>5.2488335925349926E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>1144</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>1084</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3">
-        <f>B6/(B6+E6)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.96785109983079531</v>
       </c>
       <c r="G6" s="3">
-        <f>C6/(C6+D6)</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.91786621507197286</v>
       </c>
       <c r="H6" s="3">
-        <f>(B6+C6)/(B6+C6+D6+E6)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.94286923402454503</v>
       </c>
       <c r="I6" s="3">
-        <f>(D6+E6)/A16</f>
-        <v>7.776049766718507E-4</v>
+        <f>(D6+E6)/A15</f>
+        <v>5.2488335925349926E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>1144</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>1084</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3">
-        <f>B7/(B7+E7)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.96785109983079531</v>
       </c>
       <c r="G7" s="3">
-        <f>C7/(C7+D7)</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.91786621507197286</v>
       </c>
       <c r="H7" s="3">
-        <f>(B7+C7)/(B7+C7+D7+E7)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.94286923402454503</v>
       </c>
       <c r="I7" s="3">
-        <f>(D7+E7)/A16</f>
-        <v>7.776049766718507E-4</v>
+        <f>(D7+E7)/A15</f>
+        <v>5.2488335925349926E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>1144</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>1089</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3">
-        <f>B8/(B8+E8)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.96785109983079531</v>
       </c>
       <c r="G8" s="3">
-        <f>C8/(C8+D8)</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.92209991532599489</v>
       </c>
       <c r="H8" s="3">
-        <f>(B8+C8)/(B8+C8+D8+E8)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.94498518831993228</v>
       </c>
       <c r="I8" s="3">
-        <f>(D8+E8)/A16</f>
-        <v>7.776049766718507E-4</v>
+        <f>(D8+E8)/A15</f>
+        <v>5.0544323483670293E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>1144</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>1089</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3">
-        <f>B9/(B9+E9)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.96785109983079531</v>
       </c>
       <c r="G9" s="3">
-        <f>C9/(C9+D9)</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.92209991532599489</v>
       </c>
       <c r="H9" s="3">
-        <f>(B9+C9)/(B9+C9+D9+E9)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.94498518831993228</v>
       </c>
       <c r="I9" s="3">
-        <f>(D9+E9)/A16</f>
-        <v>7.776049766718507E-4</v>
+        <f>(D9+E9)/A15</f>
+        <v>5.0544323483670293E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>1143</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>1093</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3">
-        <f>B10/(B10+E10)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.96700507614213194</v>
       </c>
       <c r="G10" s="3">
-        <f>C10/(C10+D10)</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.92548687552921249</v>
       </c>
       <c r="H10" s="3">
-        <f>(B10+C10)/(B10+C10+D10+E10)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.94625476089716465</v>
       </c>
       <c r="I10" s="3">
-        <f>(D10+E10)/A16</f>
-        <v>7.776049766718507E-4</v>
+        <f>(D10+E10)/A15</f>
+        <v>4.9377916018662517E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>1143</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>1095</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3">
-        <f>B11/(B11+E11)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.96700507614213194</v>
       </c>
       <c r="G11" s="3">
-        <f>C11/(C11+D11)</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.92718035563082135</v>
       </c>
       <c r="H11" s="3">
-        <f>(B11+C11)/(B11+C11+D11+E11)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.94710114261531952</v>
       </c>
       <c r="I11" s="3">
-        <f>(D11+E11)/A16</f>
-        <v>7.776049766718507E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <f>B12/(B12+E12)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="3">
-        <f>C12/(C12+D12)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="3">
-        <f>(B12+C12)/(B12+C12+D12+E12)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="3">
-        <f>(D12+E12)/A16</f>
-        <v>7.776049766718507E-4</v>
-      </c>
+        <f>(D11+E11)/A15</f>
+        <v>4.8600311041990668E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
+      <c r="A15" s="1">
+        <v>2572</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2572</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
